--- a/AsientosContables/Template Asiento.xlsx
+++ b/AsientosContables/Template Asiento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio Nicolas\PycharmProjects\pythonProject\AsientosContables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DC783-C0F0-4B18-A019-01659973ADBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3504A3EF-443F-4A0A-90EF-0F1E41A80C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,11 +817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr syncVertical="1" syncRef="A7" transitionEvaluation="1"/>
+  <sheetPr syncVertical="1" syncRef="A1" transitionEvaluation="1"/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
     <col min="1" max="1" width="7.9140625" customWidth="1"/>
     <col min="2" max="2" width="33.9140625" customWidth="1"/>
     <col min="3" max="3" width="16.58203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
